--- a/lab_3/lab.xlsx
+++ b/lab_3/lab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\physics\lab_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36989F55-27F5-462C-A422-771D9F383D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2361C3F5-570C-49C5-A9C8-4B5B74F82575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,8 +471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -598,7 +598,7 @@
         <v>0.54999999999999993</v>
       </c>
       <c r="M5" s="1">
-        <f t="shared" ref="M4:M7" si="1">(K5^2 - J5^2)/2</f>
+        <f t="shared" ref="M5:M7" si="1">(K5^2 - J5^2)/2</f>
         <v>3.895</v>
       </c>
     </row>
@@ -715,6 +715,14 @@
       </c>
       <c r="F12" s="1">
         <v>4.0999999999999996</v>
+      </c>
+      <c r="H12">
+        <f>AVERAGE(E32:E36)</f>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="I12">
+        <f>AVERAGE(F32:F36)</f>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
@@ -770,6 +778,10 @@
       <c r="F15" s="1">
         <v>4</v>
       </c>
+      <c r="J15">
+        <f>((B12-$D$3)-(C12-$E$3))/($C$3-$B$3)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="2"/>
@@ -788,8 +800,12 @@
       <c r="F16" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" ref="J16:J30" si="2">((B13-$D$3)-(C13-$E$3))/($C$3-$B$3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -808,8 +824,12 @@
       <c r="F17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="4"/>
       <c r="B18" s="1">
         <v>220</v>
@@ -826,8 +846,12 @@
       <c r="F18" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>220</v>
@@ -844,8 +868,12 @@
       <c r="F19" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="4"/>
       <c r="B20" s="1">
         <v>220</v>
@@ -862,8 +890,12 @@
       <c r="F20" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f>((B17-$D$3)-(C17-$E$3))/($C$3-$B$3)</f>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5"/>
       <c r="B21" s="1">
         <v>220</v>
@@ -880,8 +912,12 @@
       <c r="F21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="2"/>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>3</v>
       </c>
@@ -900,8 +936,12 @@
       <c r="F22" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f t="shared" si="2"/>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="1">
         <v>230</v>
@@ -918,8 +958,12 @@
       <c r="F23" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f t="shared" si="2"/>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>230</v>
@@ -936,8 +980,12 @@
       <c r="F24" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f t="shared" si="2"/>
+        <v>11.538461538461538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="1">
         <v>230</v>
@@ -954,8 +1002,12 @@
       <c r="F25" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5"/>
       <c r="B26" s="1">
         <v>230</v>
@@ -972,8 +1024,12 @@
       <c r="F26" s="1">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -992,8 +1048,12 @@
       <c r="F27" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
       <c r="B28" s="1">
         <v>240</v>
@@ -1010,8 +1070,12 @@
       <c r="F28" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="4"/>
       <c r="B29" s="1">
         <v>240</v>
@@ -1028,8 +1092,12 @@
       <c r="F29" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f t="shared" si="2"/>
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="1">
         <v>240</v>
@@ -1046,8 +1114,12 @@
       <c r="F30" s="1">
         <v>2.1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" si="2"/>
+        <v>34.615384615384613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5"/>
       <c r="B31" s="1">
         <v>240</v>
@@ -1065,7 +1137,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="2">
         <v>5</v>
       </c>
